--- a/atores_relacoes.xlsx
+++ b/atores_relacoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/CDEM 2020/E3/Planejamento Operativo/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/Python/relationshipdiagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5BB0C3-C9D3-BC4F-A1EF-25C493E11DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F41916-5D18-E347-8005-9363DDD7413E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C6D7EF91-DF44-AD45-98A8-8811F9299FCF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>Tipos</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Cortou Rel\ndiplomáticas</t>
   </si>
   <si>
-    <t>Tharcio</t>
+    <t>Busca relações diplomáticas</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,10 +746,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -759,6 +756,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
       <c r="N11" s="10" t="s">
         <v>42</v>
       </c>
@@ -781,7 +784,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,16 +1155,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>

--- a/atores_relacoes.xlsx
+++ b/atores_relacoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/CDEM 2020/E3/Planejamento Operativo/GT2/Avaliação Integradora/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\python\relationshipdiagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D54AB-B454-9D40-889E-FBBE3C667D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B207C51-037F-4071-8A28-F8F6CDA96167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1110" windowWidth="25815" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atores" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="45">
   <si>
     <t>ator</t>
   </si>
@@ -158,13 +158,16 @@
   </si>
   <si>
     <t>Patrocina</t>
+  </si>
+  <si>
+    <t>Branco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +187,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -275,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -290,6 +300,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,50 +518,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N997"/>
+  <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="26" width="11" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="11.28515625" style="2"/>
+    <col min="27" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -558,11 +571,11 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -572,11 +585,11 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -586,11 +599,11 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -600,65 +613,69 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -666,13 +683,13 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -680,33 +697,22 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1763,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B48" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$N$2:$N$11</formula1>
+      <formula1>$H$2:$H$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
@@ -1770,31 +1776,31 @@
   <dimension ref="A1:O852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
     <col min="3" max="26" width="11" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="11.28515625" style="2"/>
+    <col min="27" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3088,10 +3094,10 @@
     <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D28:D50" xr:uid="{E96F2FD8-7DF2-A74F-AB20-2B59CC82A28D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{E96F2FD8-7DF2-A74F-AB20-2B59CC82A28D}">
       <formula1>$N$2:$N$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E28:E50" xr:uid="{96294DC5-1B78-0144-8CE6-CD7EB3BCA6E0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E50" xr:uid="{96294DC5-1B78-0144-8CE6-CD7EB3BCA6E0}">
       <formula1>$O$2:$O$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -3099,18 +3105,12 @@
   <pageSetup orientation="landscape"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{26495AA4-94C2-D942-858E-3803A692795A}">
           <x14:formula1>
             <xm:f>atores!$A$2:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>A28:A50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CB21DD55-9CE2-2148-9830-CE4F5854392D}">
-          <x14:formula1>
-            <xm:f>atores!$A$3:$A$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>C28:C50</xm:sqref>
+          <xm:sqref>A2:A50 C2:C50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/atores_relacoes.xlsx
+++ b/atores_relacoes.xlsx
@@ -8,16 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\python\relationshipdiagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B207C51-037F-4071-8A28-F8F6CDA96167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB19378-E0DF-4DDB-A0A3-64732CB75350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1110" windowWidth="25815" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atores" sheetId="1" r:id="rId1"/>
     <sheet name="relacionamentos" sheetId="2" r:id="rId2"/>
+    <sheet name="auxiliar" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="cores">auxiliar!$C$2:$C$12</definedName>
+    <definedName name="lista_at">atores!$A$2:$A$101</definedName>
+    <definedName name="lista_at2">auxiliar!$A$2:$A$101</definedName>
+    <definedName name="lista1">OFFSET(atores!$A$2,0,0,COUNTA(atores!$A$2:$A$101))</definedName>
+    <definedName name="lista2">auxiliar!$A$2:INDEX(lista_at2,SUMPRODUCT(--(lista_at2&lt;&gt;"")))</definedName>
+    <definedName name="listaatores">atores!$A$2:INDEX(lista_at,SUMPRODUCT(--(lista_at&lt;&gt;"")))</definedName>
+    <definedName name="tipos_bool">auxiliar!$E$2:$E$3</definedName>
+    <definedName name="tipos_rel">auxiliar!$D$2:$D$4</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhVfsCIF0qyl4y01zIvWS2X8FsNBw=="/>
     </ext>
@@ -26,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="45">
   <si>
     <t>ator</t>
   </si>
@@ -46,93 +63,96 @@
     <t>relacionamento</t>
   </si>
   <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>Tipos</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>Cinza</t>
+  </si>
+  <si>
+    <t>Marrom</t>
+  </si>
+  <si>
+    <t>Ouro</t>
+  </si>
+  <si>
+    <t>Roxo</t>
+  </si>
+  <si>
+    <t>Laranja</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
     <t>MLA</t>
   </si>
   <si>
-    <t>para</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>bilateral</t>
-  </si>
-  <si>
-    <t>Tipos</t>
-  </si>
-  <si>
-    <t>Bool</t>
-  </si>
-  <si>
-    <t>Amarelo</t>
-  </si>
-  <si>
-    <t>Preto</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>UVAM</t>
+  </si>
+  <si>
+    <t>CEAN</t>
   </si>
   <si>
     <t>IMA</t>
   </si>
   <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Positivo</t>
-  </si>
-  <si>
-    <t>Vermelho</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>UVAM</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>CEAN</t>
-  </si>
-  <si>
-    <t>Cinza</t>
-  </si>
-  <si>
-    <t>Marrom</t>
+    <t>MVLT</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>FST2M</t>
   </si>
   <si>
     <t>Índios</t>
   </si>
   <si>
-    <t>Ouro</t>
-  </si>
-  <si>
-    <t>Roxo</t>
-  </si>
-  <si>
-    <t>MVLT</t>
-  </si>
-  <si>
-    <t>Laranja</t>
-  </si>
-  <si>
-    <t>VL</t>
-  </si>
-  <si>
-    <t>FST2M</t>
-  </si>
-  <si>
     <t>Ataca</t>
   </si>
   <si>
@@ -158,9 +178,6 @@
   </si>
   <si>
     <t>Patrocina</t>
-  </si>
-  <si>
-    <t>Branco</t>
   </si>
 </sst>
 </file>
@@ -516,12 +533,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B2906B47-28AE-482F-90EC-C19F01D23A2D}">
+  <we:reference id="wa104381504" version="1.0.0.0" store="pt-BR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104381504" version="1.0.0.0" store="WA104381504" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -549,114 +586,114 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>27</v>
+      <c r="H6" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -664,13 +701,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
+      <c r="H10" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,35 +715,39 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>19</v>
+      <c r="H11" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,9 +1802,12 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:H12">
+    <sortCondition ref="H2"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B48" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$H$2:$H$12</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B51" xr:uid="{BE58AEA3-8EDE-4940-B79E-E6748EF87914}">
+      <formula1>cores</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
@@ -1773,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O852"/>
+  <dimension ref="A1:E852"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1831,7 @@
     <col min="27" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1795,476 +1839,455 @@
         <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3093,27 +3116,696 @@
     <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{E96F2FD8-7DF2-A74F-AB20-2B59CC82A28D}">
-      <formula1>$N$2:$N$4</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D51" xr:uid="{9150757E-DC96-40EF-B1F8-9767EDAB5C57}">
+      <formula1>tipos_rel</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E50" xr:uid="{96294DC5-1B78-0144-8CE6-CD7EB3BCA6E0}">
-      <formula1>$O$2:$O$3</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E51" xr:uid="{7E75E397-2E46-4323-B3BB-6C2769E8DADA}">
+      <formula1>tipos_bool</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A101 C2:C101" xr:uid="{EEC1673F-0A9F-4BAF-A2C9-3BB442A46A17}">
+      <formula1>lista2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{26495AA4-94C2-D942-858E-3803A692795A}">
-          <x14:formula1>
-            <xm:f>atores!$A$2:$A$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A50 C2:C50</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BDC74-DE0B-4C99-9032-650000D9F00A}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f t="array" aca="1" ref="A2" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A1),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A1)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Amarelo</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="array" aca="1" ref="A3" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A2),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A2)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Azul</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="array" aca="1" ref="A4" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A3),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A3)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>CEAN</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="array" aca="1" ref="A5" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A4),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A4)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>FST2M</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="array" aca="1" ref="A6" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A5),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A5)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>IMA</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="array" aca="1" ref="A7" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A6),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A6)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Índios</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="array" aca="1" ref="A8" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A7),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A7)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Marrom</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="array" aca="1" ref="A9" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A8),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A8)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>MLA</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="array" aca="1" ref="A10" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A9),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A9)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>MVLT</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="array" aca="1" ref="A11" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A10),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A10)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>UVAM</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="array" aca="1" ref="A12" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A11),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A11)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Verde</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="array" aca="1" ref="A13" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A12),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A12)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>Vermelho</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="array" aca="1" ref="A14" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A13),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A13)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v>VL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="array" aca="1" ref="A15" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A14),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A14)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="array" aca="1" ref="A16" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A15),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A15)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="array" aca="1" ref="A17" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A16),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A16)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="array" aca="1" ref="A18" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A17),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A17)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="array" aca="1" ref="A19" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A18),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A18)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="array" aca="1" ref="A20" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A19),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A19)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="array" aca="1" ref="A21" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A20),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A20)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="array" aca="1" ref="A22" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A21),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A21)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="array" aca="1" ref="A23" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A22),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A22)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="array" aca="1" ref="A24" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A23),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A23)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="array" aca="1" ref="A25" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A24),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A24)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="array" aca="1" ref="A26" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A25),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A25)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="array" aca="1" ref="A27" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A26),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A26)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="array" aca="1" ref="A28" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A27),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A27)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="array" aca="1" ref="A29" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A28),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A28)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="array" aca="1" ref="A30" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A29),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A29)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="array" aca="1" ref="A31" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A30),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A30)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="array" aca="1" ref="A32" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A31),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A31)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="array" aca="1" ref="A33" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A32),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A32)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="array" aca="1" ref="A34" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A33),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A33)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="array" aca="1" ref="A35" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A34),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A34)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="array" aca="1" ref="A36" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A35),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A35)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="array" aca="1" ref="A37" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A36),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A36)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="array" aca="1" ref="A38" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A37),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A37)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="array" aca="1" ref="A39" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A38),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A38)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="array" aca="1" ref="A40" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A39),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A39)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="array" aca="1" ref="A41" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A40),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A40)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="array" aca="1" ref="A42" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A41),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A41)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="array" aca="1" ref="A43" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A42),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A42)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="array" aca="1" ref="A44" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A43),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A43)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="array" aca="1" ref="A45" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A44),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A44)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="array" aca="1" ref="A46" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A45),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A45)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="array" aca="1" ref="A47" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A46),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A46)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="array" aca="1" ref="A48" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A47),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A47)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="array" aca="1" ref="A49" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A48),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A48)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="array" aca="1" ref="A50" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A49),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A49)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="array" aca="1" ref="A51" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A50),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A50)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="array" aca="1" ref="A52" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A51),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A51)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="array" aca="1" ref="A53" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A52),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A52)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="array" aca="1" ref="A54" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A53),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A53)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="array" aca="1" ref="A55" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A54),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A54)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="array" aca="1" ref="A56" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A55),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A55)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="array" aca="1" ref="A57" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A56),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A56)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="array" aca="1" ref="A58" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A57),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A57)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="array" aca="1" ref="A59" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A58),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A58)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="array" aca="1" ref="A60" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A59),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A59)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="array" aca="1" ref="A61" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A60),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A60)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f t="array" aca="1" ref="A62" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A61),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A61)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f t="array" aca="1" ref="A63" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A62),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A62)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f t="array" aca="1" ref="A64" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A63),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A63)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="array" aca="1" ref="A65" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A64),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A64)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="array" aca="1" ref="A66" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A65),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A65)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="array" aca="1" ref="A67" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A66),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A66)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f t="array" aca="1" ref="A68" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A67),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A67)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f t="array" aca="1" ref="A69" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A68),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A68)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="array" aca="1" ref="A70" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A69),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A69)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="array" aca="1" ref="A71" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A70),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A70)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f t="array" aca="1" ref="A72" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A71),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A71)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f t="array" aca="1" ref="A73" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A72),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A72)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="array" aca="1" ref="A74" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A73),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A73)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="array" aca="1" ref="A75" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A74),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A74)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="array" aca="1" ref="A76" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A75),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A75)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="array" aca="1" ref="A77" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A76),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A76)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="array" aca="1" ref="A78" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A77),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A77)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="array" aca="1" ref="A79" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A78),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A78)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="array" aca="1" ref="A80" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A79),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A79)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="array" aca="1" ref="A81" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A80),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A80)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="array" aca="1" ref="A82" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A81),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A81)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="array" aca="1" ref="A83" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A82),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A82)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="array" aca="1" ref="A84" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A83),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A83)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="array" aca="1" ref="A85" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A84),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A84)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="array" aca="1" ref="A86" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A85),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A85)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="array" aca="1" ref="A87" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A86),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A86)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f t="array" aca="1" ref="A88" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A87),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A87)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f t="array" aca="1" ref="A89" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A88),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A88)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f t="array" aca="1" ref="A90" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A89),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A89)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f t="array" aca="1" ref="A91" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A90),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A90)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f t="array" aca="1" ref="A92" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A91),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A91)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f t="array" aca="1" ref="A93" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A92),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A92)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f t="array" aca="1" ref="A94" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A93),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A93)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f t="array" aca="1" ref="A95" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A94),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A94)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f t="array" aca="1" ref="A96" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A95),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A95)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f t="array" aca="1" ref="A97" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A96),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A96)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f t="array" aca="1" ref="A98" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A97),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A97)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f t="array" aca="1" ref="A99" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A98),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A98)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f t="array" aca="1" ref="A100" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A99),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A99)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f t="array" aca="1" ref="A101" ca="1">IF(COUNTA(lista1)&gt;=ROWS($A$1:A100),INDEX(lista1,MATCH(SMALL(COUNTIF(lista1,"&lt;"&amp;lista1),ROW(A100)),COUNTIF(lista1,"&lt;"&amp;lista1),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/atores_relacoes.xlsx
+++ b/atores_relacoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\python\relationshipdiagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB19378-E0DF-4DDB-A0A3-64732CB75350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E136B0-88FC-4B5B-AB05-3060A2E7A9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atores" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhVfsCIF0qyl4y01zIvWS2X8FsNBw=="/>
     </ext>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="44">
   <si>
     <t>ator</t>
   </si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>Preto</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Negativo</t>
@@ -557,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -586,13 +577,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -600,58 +588,56 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="H6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -662,91 +648,83 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="H12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -1819,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E852"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1853,16 +1831,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1870,16 +1848,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,305 +1865,305 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,16 +2171,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,16 +2188,16 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,67 +2205,67 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3164,10 +3142,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3176,13 +3154,13 @@
         <v>Azul</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,10 +3169,10 @@
         <v>CEAN</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3204,7 +3182,7 @@
         <v>FST2M</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3213,7 +3191,7 @@
         <v>IMA</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3222,7 +3200,7 @@
         <v>Índios</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,7 +3209,7 @@
         <v>Marrom</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,7 +3227,7 @@
         <v>MVLT</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3258,7 +3236,7 @@
         <v>UVAM</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3267,7 +3245,7 @@
         <v>Verde</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/atores_relacoes.xlsx
+++ b/atores_relacoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/Python/relationshipdiagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A79F5-A370-1A41-A45F-DACE6BF78527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E77A9-73F9-0E4B-B761-33A3B1823EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atores" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>Cores</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Preto</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Negativo</t>
@@ -541,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,14 +586,12 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -628,9 +623,7 @@
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -657,14 +650,12 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -691,14 +682,12 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -725,14 +714,12 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -759,14 +746,12 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -793,14 +778,12 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -827,14 +810,12 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -861,14 +842,12 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -896,9 +875,7 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -28605,19 +28582,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -28643,16 +28620,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -28681,16 +28658,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -28719,16 +28696,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -28757,19 +28734,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -28795,19 +28772,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -28833,19 +28810,19 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -28871,19 +28848,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -28909,19 +28886,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -28947,19 +28924,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -28985,19 +28962,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -29023,19 +29000,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -29061,19 +29038,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -29099,19 +29076,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -29137,19 +29114,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -29178,16 +29155,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -29213,19 +29190,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -56508,7 +56485,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -56544,39 +56521,39 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>44</v>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -56586,17 +56563,17 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
